--- a/ValueSet-StrokeSevLocVS.xlsx
+++ b/ValueSet-StrokeSevLocVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-StrokeSevLocVS.xlsx
+++ b/ValueSet-StrokeSevLocVS.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ValueSet que Categoriza o Estado de Consciência</t>
+    <t>ValueSet Categorizing the State of Consciousness according to the ICHOM standard.</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T16:05:12-03:00</t>
+    <t>2023-11-21T18:47:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Este ValueSet indica o estado de consciência do paciente aferido na chegada ao Hospital de Referência.</t>
+    <t>This ValueSet is based on the ICHOM standard and it indicates the patient's state of consciousness as measured upon arrival at the reference hospital.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,25 +96,25 @@
     <t>0</t>
   </si>
   <si>
-    <t>Completamente acordado | Fully awake</t>
+    <t>Fully awake</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Sonolento | Somnolent</t>
+    <t>Somnolent</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Coma | Coma</t>
+    <t>Coma</t>
   </si>
   <si>
     <t>999</t>
   </si>
   <si>
-    <t>Desconhecido | Unknown</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t/>

--- a/ValueSet-StrokeSevLocVS.xlsx
+++ b/ValueSet-StrokeSevLocVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T18:47:54-03:00</t>
+    <t>2023-11-21T19:08:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
